--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +259,39 @@
   </si>
   <si>
     <t>125.212.203.250,21083</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -710,30 +743,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,6 +760,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,41 +1127,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1173,58 +1206,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1249,23 +1282,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1308,9 @@
       <c r="B6" s="61">
         <v>44876</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44883</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -1290,18 +1325,30 @@
       <c r="I6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="64"/>
+      <c r="J6" s="64" t="s">
+        <v>73</v>
+      </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>72</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1332,7 +1379,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1408,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1437,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1466,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1495,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1524,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1508,7 +1555,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1584,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1613,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1642,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1745,7 +1792,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3311,6 +3358,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3322,13 +3376,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3372,39 +3419,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3449,58 +3496,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3525,23 +3572,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,7 +3614,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3598,7 +3645,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3627,7 +3674,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3656,7 +3703,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3685,7 +3732,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3714,7 +3761,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3743,7 +3790,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3774,7 +3821,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3803,7 +3850,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3879,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3908,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5577,13 +5624,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5595,6 +5635,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5605,8 +5652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5638,41 +5685,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5717,58 +5764,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5793,23 +5840,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,12 +5866,14 @@
       <c r="B6" s="61">
         <v>44876</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44883</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>64</v>
+      <c r="E6" s="39">
+        <v>22040014</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
@@ -5832,18 +5881,30 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5858,31 +5919,45 @@
       <c r="B7" s="61">
         <v>44876</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="61">
+        <v>44883</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>64</v>
+      <c r="E7" s="39">
+        <v>21050018</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5895,12 +5970,14 @@
       <c r="B8" s="61">
         <v>44876</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="61">
+        <v>44883</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>64</v>
+      <c r="E8" s="39">
+        <v>2111021</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
@@ -5908,18 +5985,30 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5932,7 +6021,9 @@
       <c r="B9" s="61">
         <v>44876</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="61">
+        <v>44883</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>57</v>
       </c>
@@ -5948,15 +6039,25 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5969,7 +6070,9 @@
       <c r="B10" s="61">
         <v>44876</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="61">
+        <v>44883</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>57</v>
       </c>
@@ -5985,15 +6088,25 @@
       <c r="J10" s="1"/>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6022,7 +6135,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6051,7 +6164,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6082,7 +6195,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6111,7 +6224,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6140,7 +6253,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6169,7 +6282,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6287,7 +6400,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6319,7 +6432,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6564,7 +6677,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -6788,7 +6901,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6820,7 +6933,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6938,7 +7051,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -7885,13 +7998,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7903,6 +8009,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7946,39 +8059,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8023,58 +8136,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8099,23 +8212,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8141,7 +8254,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8172,7 +8285,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8201,7 +8314,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8230,7 +8343,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8259,7 +8372,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8288,7 +8401,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8317,7 +8430,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8348,7 +8461,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8377,7 +8490,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8406,7 +8519,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8435,7 +8548,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10151,13 +10264,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10169,6 +10275,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10212,39 +10325,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10289,58 +10402,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10365,23 +10478,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10407,7 +10520,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10438,7 +10551,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10467,7 +10580,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10496,7 +10609,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10525,7 +10638,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10554,7 +10667,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10583,7 +10696,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10614,7 +10727,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10643,7 +10756,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10672,7 +10785,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10701,7 +10814,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12417,13 +12530,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12435,6 +12541,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12478,39 +12591,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12555,58 +12668,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12631,23 +12744,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12673,7 +12786,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12704,7 +12817,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12733,7 +12846,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12762,7 +12875,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12791,7 +12904,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12820,7 +12933,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12849,7 +12962,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12880,7 +12993,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12909,7 +13022,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12938,7 +13051,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12967,7 +13080,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14683,13 +14796,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14701,6 +14807,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14744,39 +14857,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14821,58 +14934,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14897,23 +15010,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14939,7 +15052,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14970,7 +15083,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14999,7 +15112,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15028,7 +15141,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15057,7 +15170,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15086,7 +15199,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15115,7 +15228,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15146,7 +15259,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15175,7 +15288,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15204,7 +15317,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15233,7 +15346,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16949,13 +17062,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16967,6 +17073,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17010,39 +17123,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17087,58 +17200,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17163,23 +17276,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17205,7 +17318,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17236,7 +17349,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17265,7 +17378,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17294,7 +17407,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17323,7 +17436,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17352,7 +17465,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17381,7 +17494,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17412,7 +17525,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17441,7 +17554,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17470,7 +17583,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17499,7 +17612,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19215,13 +19328,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19233,6 +19339,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19276,39 +19389,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19353,58 +19466,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19429,23 +19542,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19471,7 +19584,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19502,7 +19615,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19531,7 +19644,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19560,7 +19673,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19589,7 +19702,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19618,7 +19731,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19647,7 +19760,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19678,7 +19791,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19707,7 +19820,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19736,7 +19849,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19765,7 +19878,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20996,6 +21109,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21007,13 +21127,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NgocKimAnh.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>ID tb mới : 1205220001</t>
+  </si>
+  <si>
+    <t>ID tb mới : 1205220002</t>
+  </si>
+  <si>
+    <t>IMEI tb mới : WSP21110069S00324/0032001125</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -743,6 +755,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,30 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showZeros="0" topLeftCell="F27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,41 +1139,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1206,58 +1218,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1282,23 +1294,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,7 +1321,7 @@
         <v>44876</v>
       </c>
       <c r="C6" s="61">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
@@ -1321,7 +1333,9 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>68</v>
       </c>
@@ -1348,7 +1362,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1379,7 +1393,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1408,7 +1422,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1451,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1466,7 +1480,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +1509,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1538,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1555,7 +1569,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1598,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1627,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1642,7 +1656,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3358,13 +3372,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3376,6 +3383,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3419,39 +3433,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3496,58 +3510,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3572,23 +3586,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3628,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3645,7 +3659,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3674,7 +3688,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3703,7 +3717,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3732,7 +3746,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3761,7 +3775,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3790,7 +3804,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3821,7 +3835,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3850,7 +3864,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3879,7 +3893,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3908,7 +3922,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5624,6 +5638,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5635,13 +5656,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5652,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5685,41 +5699,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5764,58 +5778,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5840,23 +5854,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,19 +5881,21 @@
         <v>44876</v>
       </c>
       <c r="C6" s="61">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="39">
-        <v>22040014</v>
+      <c r="E6" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>80</v>
+      </c>
       <c r="I6" s="63"/>
       <c r="J6" s="1" t="s">
         <v>74</v>
@@ -5904,7 +5920,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5920,7 +5936,7 @@
         <v>44876</v>
       </c>
       <c r="C7" s="61">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>57</v>
@@ -5957,7 +5973,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5971,7 +5987,7 @@
         <v>44876</v>
       </c>
       <c r="C8" s="61">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
@@ -5983,7 +5999,9 @@
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
         <v>74</v>
@@ -6008,7 +6026,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>44876</v>
       </c>
       <c r="C9" s="61">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>57</v>
@@ -6057,7 +6075,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>44876</v>
       </c>
       <c r="C10" s="61">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>57</v>
@@ -6106,7 +6124,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6135,7 +6153,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6164,7 +6182,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6195,7 +6213,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6224,7 +6242,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6253,7 +6271,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6282,7 +6300,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7998,6 +8016,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8009,13 +8034,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8059,39 +8077,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8136,58 +8154,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8212,23 +8230,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8254,7 +8272,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8285,7 +8303,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8314,7 +8332,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8343,7 +8361,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8372,7 +8390,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8401,7 +8419,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8430,7 +8448,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8461,7 +8479,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8490,7 +8508,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8519,7 +8537,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8548,7 +8566,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10264,6 +10282,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10275,13 +10300,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10325,39 +10343,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10402,58 +10420,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10478,23 +10496,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10520,7 +10538,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10551,7 +10569,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10580,7 +10598,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10609,7 +10627,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10638,7 +10656,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10667,7 +10685,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10696,7 +10714,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10727,7 +10745,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10756,7 +10774,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10785,7 +10803,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10814,7 +10832,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12530,6 +12548,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12541,13 +12566,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12591,39 +12609,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12668,58 +12686,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12744,23 +12762,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12786,7 +12804,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12817,7 +12835,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12846,7 +12864,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12875,7 +12893,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12904,7 +12922,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12933,7 +12951,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12962,7 +12980,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12993,7 +13011,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13022,7 +13040,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13051,7 +13069,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13080,7 +13098,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14796,6 +14814,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14807,13 +14832,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14857,39 +14875,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14934,58 +14952,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15010,23 +15028,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15052,7 +15070,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15083,7 +15101,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15112,7 +15130,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15141,7 +15159,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15170,7 +15188,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15199,7 +15217,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15228,7 +15246,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15259,7 +15277,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15288,7 +15306,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15317,7 +15335,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15346,7 +15364,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17062,6 +17080,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17073,13 +17098,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17123,39 +17141,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17200,58 +17218,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17276,23 +17294,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17318,7 +17336,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17349,7 +17367,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17378,7 +17396,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17407,7 +17425,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17436,7 +17454,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17465,7 +17483,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17494,7 +17512,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17525,7 +17543,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17554,7 +17572,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17583,7 +17601,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17612,7 +17630,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19328,6 +19346,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19339,13 +19364,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19389,39 +19407,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19466,58 +19484,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19542,23 +19560,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19584,7 +19602,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19615,7 +19633,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19644,7 +19662,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19673,7 +19691,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19702,7 +19720,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19731,7 +19749,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19760,7 +19778,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19791,7 +19809,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19820,7 +19838,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19849,7 +19867,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19878,7 +19896,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21109,13 +21127,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21127,6 +21138,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
